--- a/backend/externalfiles/CheckStudentRelation.xlsx
+++ b/backend/externalfiles/CheckStudentRelation.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26018"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\intranet.kaboe.be\html\backend\externalfiles\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9871E95F-3C4C-4884-A6B1-8920E3089B0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="567" documentId="11_BC306F1EC3D654026F15A6DB943E8C1851039F55" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A83E487D-D15B-4186-811C-E6EE379A04F8}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -30,6 +25,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="171">
   <si>
     <t>4E8PNokgSU6cnd9gHF7e-d9-c3z_fX9Cr5LOQ1Wo77dURVIxMTZGWlI1Ulg5MzU5VUI2N1UyQ0g3RS4u</t>
   </si>
@@ -99,22 +97,457 @@
     <t>anonymous</t>
   </si>
   <si>
-    <t>De Meidoorn</t>
-  </si>
-  <si>
-    <t>Test kind</t>
-  </si>
-  <si>
-    <t>96.08.12-360.50</t>
-  </si>
-  <si>
-    <t>gr A2</t>
-  </si>
-  <si>
-    <t>99.03.09-315.60</t>
-  </si>
-  <si>
-    <t>Test vader</t>
+    <t>Sint-Antonius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De Maertelaere Léon </t>
+  </si>
+  <si>
+    <t>11060816987</t>
+  </si>
+  <si>
+    <t>6 (Michèle Owczarek / Niké De Mey)</t>
+  </si>
+  <si>
+    <t>Sofie De Groeve</t>
+  </si>
+  <si>
+    <t>79102712419</t>
+  </si>
+  <si>
+    <t>De Maertelaere Dirk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geen idee </t>
+  </si>
+  <si>
+    <t>Vandevoorde Amoury</t>
+  </si>
+  <si>
+    <t>12031333958</t>
+  </si>
+  <si>
+    <t>5 (Jera Van den Bulcke / Niké De Mey)</t>
+  </si>
+  <si>
+    <t>Sanny van Rie</t>
+  </si>
+  <si>
+    <t>76101234093</t>
+  </si>
+  <si>
+    <t>Vandevoorde Elias</t>
+  </si>
+  <si>
+    <t>80070205364</t>
+  </si>
+  <si>
+    <t>Aaron De Weerd</t>
+  </si>
+  <si>
+    <t>15.06.21-155.86</t>
+  </si>
+  <si>
+    <t>2 (Laurence Aelbrecht / Heleen De Baets)</t>
+  </si>
+  <si>
+    <t>Anniek Van Landschoot</t>
+  </si>
+  <si>
+    <t>83.05.03-092.44</t>
+  </si>
+  <si>
+    <t>Tom De Weerd</t>
+  </si>
+  <si>
+    <t>Sten</t>
+  </si>
+  <si>
+    <t>20042620178</t>
+  </si>
+  <si>
+    <t>1KA (Nele Vandycke)</t>
+  </si>
+  <si>
+    <t>Axters mieke</t>
+  </si>
+  <si>
+    <t>86053029465</t>
+  </si>
+  <si>
+    <t>Verbauwen wim</t>
+  </si>
+  <si>
+    <t>83120811517</t>
+  </si>
+  <si>
+    <t>Scout verbauwen</t>
+  </si>
+  <si>
+    <t>17112435369</t>
+  </si>
+  <si>
+    <t>2-3KA (Kathleen Soberon)</t>
+  </si>
+  <si>
+    <t>Aya Peys</t>
+  </si>
+  <si>
+    <t>13073026856</t>
+  </si>
+  <si>
+    <t>4 (Ann Mortier / Greet De Meyer)</t>
+  </si>
+  <si>
+    <t>Elke Reynvoet</t>
+  </si>
+  <si>
+    <t>90101323673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quinten Peys </t>
+  </si>
+  <si>
+    <t>88073126325</t>
+  </si>
+  <si>
+    <t>Peys Ely</t>
+  </si>
+  <si>
+    <t>17022231804</t>
+  </si>
+  <si>
+    <t>2-3KB (Stefanie Boelens / Lieselotte Soens)</t>
+  </si>
+  <si>
+    <t>Quinten Peys</t>
+  </si>
+  <si>
+    <t>De Vos Julie</t>
+  </si>
+  <si>
+    <t>11041407287</t>
+  </si>
+  <si>
+    <t>Van Mol Monika</t>
+  </si>
+  <si>
+    <t>88090822291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De Vos Bart </t>
+  </si>
+  <si>
+    <t>82082522923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenn van Acker </t>
+  </si>
+  <si>
+    <t>16.03.26-171.17</t>
+  </si>
+  <si>
+    <t>1A (Greet De Sutter / Heleen De Baets)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joke deback </t>
+  </si>
+  <si>
+    <t>83.12.12-354.46</t>
+  </si>
+  <si>
+    <t>Koen van acker</t>
+  </si>
+  <si>
+    <t>Lena Van Moorhem</t>
+  </si>
+  <si>
+    <t>16052610005</t>
+  </si>
+  <si>
+    <t>Nathalie Verstringe</t>
+  </si>
+  <si>
+    <t>88111636810</t>
+  </si>
+  <si>
+    <t>De Vos Thomas</t>
+  </si>
+  <si>
+    <t>13040303313</t>
+  </si>
+  <si>
+    <t>Van Mol Monik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De Vos Thomas </t>
+  </si>
+  <si>
+    <t>Amélie Van Moorhem</t>
+  </si>
+  <si>
+    <t>18050317679</t>
+  </si>
+  <si>
+    <t>Verbrugge Elise</t>
+  </si>
+  <si>
+    <t>14080700864</t>
+  </si>
+  <si>
+    <t>3 (Jan Grootaert / Cato Vanhoorebeke)</t>
+  </si>
+  <si>
+    <t>Maeijens Hilde</t>
+  </si>
+  <si>
+    <t>82080515023</t>
+  </si>
+  <si>
+    <t>Verbrugge Margot</t>
+  </si>
+  <si>
+    <t>16050211036</t>
+  </si>
+  <si>
+    <t>1B (Margot Claeys / Deborah Ingelrest)</t>
+  </si>
+  <si>
+    <t>Olivia De Vriendt</t>
+  </si>
+  <si>
+    <t>190103 098 53</t>
+  </si>
+  <si>
+    <t>1-2KA (Ann Claeys)</t>
+  </si>
+  <si>
+    <t>Tatiana Stul</t>
+  </si>
+  <si>
+    <t>930623 314 21</t>
+  </si>
+  <si>
+    <t>Maxim De Vriendt</t>
+  </si>
+  <si>
+    <t>910403 233 6</t>
+  </si>
+  <si>
+    <t>Navayo De Meyere</t>
+  </si>
+  <si>
+    <t>12.04.02-063.89</t>
+  </si>
+  <si>
+    <t>De Meyere Diëgo</t>
+  </si>
+  <si>
+    <t>86.05.07-363-07</t>
+  </si>
+  <si>
+    <t>van hoorebeke emilia</t>
+  </si>
+  <si>
+    <t>11102520455</t>
+  </si>
+  <si>
+    <t>verhelst melissa</t>
+  </si>
+  <si>
+    <t>84062841863</t>
+  </si>
+  <si>
+    <t>van hoorebeke koen</t>
+  </si>
+  <si>
+    <t>80042836716</t>
+  </si>
+  <si>
+    <t>Nell Tunyck</t>
+  </si>
+  <si>
+    <t>13060609866</t>
+  </si>
+  <si>
+    <t>Evelien Coucquyt</t>
+  </si>
+  <si>
+    <t>88041723465</t>
+  </si>
+  <si>
+    <t>Kyle Bollé</t>
+  </si>
+  <si>
+    <t>17052936361</t>
+  </si>
+  <si>
+    <t>Van de keere Kimberley</t>
+  </si>
+  <si>
+    <t>88102028662</t>
+  </si>
+  <si>
+    <t>Dimitri Bollé</t>
+  </si>
+  <si>
+    <t>Maxime Tunyck</t>
+  </si>
+  <si>
+    <t>16081813141</t>
+  </si>
+  <si>
+    <t>De Caluwe Loï</t>
+  </si>
+  <si>
+    <t>14.07.08-347.7</t>
+  </si>
+  <si>
+    <t>Van Meulebroeck Lieselot</t>
+  </si>
+  <si>
+    <t>84.01.10-276.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De Caluwe Frederic </t>
+  </si>
+  <si>
+    <t>84.03.09-103.54</t>
+  </si>
+  <si>
+    <t>De Caluwe Nola</t>
+  </si>
+  <si>
+    <t>16.07.30-216.74</t>
+  </si>
+  <si>
+    <t>De Caluwe Frederic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manon D’Hondt </t>
+  </si>
+  <si>
+    <t>15102721865</t>
+  </si>
+  <si>
+    <t>Jana De Valck</t>
+  </si>
+  <si>
+    <t>87063021278</t>
+  </si>
+  <si>
+    <t>Peter D’Hondt</t>
+  </si>
+  <si>
+    <t>83122508918</t>
+  </si>
+  <si>
+    <t>Reemy Voet</t>
+  </si>
+  <si>
+    <t>11.12.11-069.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cindy Voet </t>
+  </si>
+  <si>
+    <t>76.07.26-162.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laureyns Harley </t>
+  </si>
+  <si>
+    <t>15073033334</t>
+  </si>
+  <si>
+    <t>Tamara Laureyns</t>
+  </si>
+  <si>
+    <t>78122238694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dierens Luc </t>
+  </si>
+  <si>
+    <t>Tess Catterman</t>
+  </si>
+  <si>
+    <t>18.01.08-258.13</t>
+  </si>
+  <si>
+    <t>Nele Vandycke</t>
+  </si>
+  <si>
+    <t>91.06.18-454.86</t>
+  </si>
+  <si>
+    <t>Lorenz Catterman</t>
+  </si>
+  <si>
+    <t>91.05.17-433.33</t>
+  </si>
+  <si>
+    <t>Sienna Ghiotto</t>
+  </si>
+  <si>
+    <t>19022209674</t>
+  </si>
+  <si>
+    <t>Alexandra Vandevelde</t>
+  </si>
+  <si>
+    <t>93111726888</t>
+  </si>
+  <si>
+    <t>Michaël Ghiotto</t>
+  </si>
+  <si>
+    <t>87071007150</t>
+  </si>
+  <si>
+    <t>Ben De Sutter</t>
+  </si>
+  <si>
+    <t>13081316101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kimberly Pattyn </t>
+  </si>
+  <si>
+    <t>85081327017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicky De Sutter </t>
+  </si>
+  <si>
+    <t>80051025197</t>
+  </si>
+  <si>
+    <t>Ester Waterschoot</t>
+  </si>
+  <si>
+    <t>13041412675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kelly Van Kerckvoorde </t>
+  </si>
+  <si>
+    <t>78100614624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koen Waterschoot </t>
+  </si>
+  <si>
+    <t>58051510519</t>
+  </si>
+  <si>
+    <t>Felix Waterschoot</t>
+  </si>
+  <si>
+    <t>14042826720</t>
+  </si>
+  <si>
+    <t>7810061462</t>
   </si>
 </sst>
 </file>
@@ -124,7 +557,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,7 +590,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -228,8 +661,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0487B317-BF8A-462D-B3E4-3418FE9D5EA0}" name="Tabel1" displayName="Tabel1" ref="A1:P2" totalsRowShown="0" headerRowDxfId="16">
-  <autoFilter ref="A1:P2" xr:uid="{0487B317-BF8A-462D-B3E4-3418FE9D5EA0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0487B317-BF8A-462D-B3E4-3418FE9D5EA0}" name="Tabel1" displayName="Tabel1" ref="A1:P31" totalsRowShown="0" headerRowDxfId="16">
+  <autoFilter ref="A1:P31" xr:uid="{0487B317-BF8A-462D-B3E4-3418FE9D5EA0}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{61D10B28-4630-4562-ADBD-F13EE0978715}" name="ID" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{4022BFAA-F3E2-4E4F-B881-AC7C82E85100}" name="Start time" dataDxfId="14"/>
@@ -543,7 +976,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -555,19 +988,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -579,18 +1012,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59946DD-9019-4860-B7DC-BF501DCC04C3}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -640,49 +1073,1102 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
+    <row r="2" spans="1:16">
+      <c r="A2">
+        <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>44910.570532407408</v>
+        <v>44915.645370370374</v>
       </c>
       <c r="C2" s="2">
-        <v>44910.571469907409</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="3" t="s">
+        <v>44915.646898148145</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3" t="s">
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="O2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44915.646909722222</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44915.647696759261</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44915.648692129631</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44915.651354166665</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44915.648090277777</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44915.653217592589</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44915.653240740743</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44915.653935185182</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" t="s">
+        <v>46</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>44915.661458333336</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44915.663576388892</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" t="s">
+        <v>54</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>44915.663599537038</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44915.6643287037</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" t="s">
+        <v>54</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>44915.664918981478</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44915.667071759257</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" t="s">
+        <v>64</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2">
+        <v>44915.665636574071</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44915.667534722219</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" t="s">
+        <v>70</v>
+      </c>
+      <c r="M10" t="s">
+        <v>71</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O10" t="s">
+        <v>73</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44915.65892361111</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44915.668321759258</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" t="s">
+        <v>70</v>
+      </c>
+      <c r="M11" t="s">
+        <v>76</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2">
+        <v>44915.66715277778</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44915.668391203704</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M12" t="s">
+        <v>80</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O12" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2">
+        <v>44915.668356481481</v>
+      </c>
+      <c r="C13" s="2">
+        <v>44915.668726851851</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" t="s">
+        <v>50</v>
+      </c>
+      <c r="M13" t="s">
+        <v>76</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2">
+        <v>44915.670960648145</v>
+      </c>
+      <c r="C14" s="2">
+        <v>44915.672118055554</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K14" t="s">
+        <v>86</v>
+      </c>
+      <c r="M14" t="s">
+        <v>87</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2">
+        <v>44915.672164351854</v>
+      </c>
+      <c r="C15" s="2">
+        <v>44915.682025462964</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K15" t="s">
+        <v>91</v>
+      </c>
+      <c r="M15" t="s">
+        <v>87</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2">
+        <v>44915.710914351854</v>
+      </c>
+      <c r="C16" s="2">
+        <v>44915.711967592593</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16" t="s">
+        <v>94</v>
+      </c>
+      <c r="M16" t="s">
+        <v>95</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="O16" t="s">
+        <v>97</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2">
+        <v>44915.732442129629</v>
+      </c>
+      <c r="C17" s="2">
+        <v>44915.735347222224</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17" s="3"/>
+      <c r="O17" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2">
+        <v>44915.739525462966</v>
+      </c>
+      <c r="C18" s="2">
+        <v>44915.741562499999</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K18" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" t="s">
+        <v>105</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O18" t="s">
+        <v>107</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2">
+        <v>44915.770092592589</v>
+      </c>
+      <c r="C19" s="2">
+        <v>44915.771261574075</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="K19" t="s">
+        <v>53</v>
+      </c>
+      <c r="M19" t="s">
+        <v>111</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
+        <v>21</v>
+      </c>
+      <c r="B20" s="2">
+        <v>44915.770682870374</v>
+      </c>
+      <c r="C20" s="2">
+        <v>44915.771307870367</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" t="s">
+        <v>113</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K20" t="s">
+        <v>60</v>
+      </c>
+      <c r="M20" t="s">
+        <v>115</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="O20" t="s">
+        <v>117</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
+        <v>22</v>
+      </c>
+      <c r="B21" s="2">
+        <v>44915.77140046296</v>
+      </c>
+      <c r="C21" s="2">
+        <v>44915.771932870368</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>118</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="K21" t="s">
+        <v>91</v>
+      </c>
+      <c r="M21" t="s">
+        <v>111</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
+        <v>23</v>
+      </c>
+      <c r="B22" s="2">
+        <v>44915.77244212963</v>
+      </c>
+      <c r="C22" s="2">
+        <v>44915.774583333332</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" t="s">
+        <v>120</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K22" t="s">
+        <v>86</v>
+      </c>
+      <c r="M22" t="s">
+        <v>122</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="O22" t="s">
+        <v>124</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
         <v>24</v>
+      </c>
+      <c r="B23" s="2">
+        <v>44915.774664351855</v>
+      </c>
+      <c r="C23" s="2">
+        <v>44915.775925925926</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" t="s">
+        <v>126</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K23" t="s">
+        <v>91</v>
+      </c>
+      <c r="M23" t="s">
+        <v>122</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="O23" t="s">
+        <v>128</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
+        <v>25</v>
+      </c>
+      <c r="B24" s="2">
+        <v>44915.777118055557</v>
+      </c>
+      <c r="C24" s="2">
+        <v>44915.778310185182</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" t="s">
+        <v>129</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K24" t="s">
+        <v>37</v>
+      </c>
+      <c r="M24" t="s">
+        <v>131</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="O24" t="s">
+        <v>133</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
+        <v>26</v>
+      </c>
+      <c r="B25" s="2">
+        <v>44915.807557870372</v>
+      </c>
+      <c r="C25" s="2">
+        <v>44915.809074074074</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" t="s">
+        <v>135</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="K25" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" t="s">
+        <v>137</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
+        <v>27</v>
+      </c>
+      <c r="B26" s="2">
+        <v>44915.809606481482</v>
+      </c>
+      <c r="C26" s="2">
+        <v>44915.810729166667</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" t="s">
+        <v>139</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="K26" t="s">
+        <v>37</v>
+      </c>
+      <c r="M26" t="s">
+        <v>141</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="O26" t="s">
+        <v>143</v>
+      </c>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
+        <v>28</v>
+      </c>
+      <c r="B27" s="2">
+        <v>44915.888738425929</v>
+      </c>
+      <c r="C27" s="2">
+        <v>44915.890833333331</v>
+      </c>
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K27" t="s">
+        <v>50</v>
+      </c>
+      <c r="M27" t="s">
+        <v>146</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="O27" t="s">
+        <v>148</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
+        <v>29</v>
+      </c>
+      <c r="B28" s="2">
+        <v>44916.306562500002</v>
+      </c>
+      <c r="C28" s="2">
+        <v>44916.309745370374</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" t="s">
+        <v>150</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="K28" t="s">
+        <v>43</v>
+      </c>
+      <c r="M28" t="s">
+        <v>152</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="O28" t="s">
+        <v>154</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
+        <v>30</v>
+      </c>
+      <c r="B29" s="2">
+        <v>44916.331250000003</v>
+      </c>
+      <c r="C29" s="2">
+        <v>44916.333738425928</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" t="s">
+        <v>156</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="K29" t="s">
+        <v>53</v>
+      </c>
+      <c r="M29" t="s">
+        <v>158</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="O29" t="s">
+        <v>160</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
+        <v>31</v>
+      </c>
+      <c r="B30" s="2">
+        <v>44916.370104166665</v>
+      </c>
+      <c r="C30" s="2">
+        <v>44916.371446759258</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" t="s">
+        <v>162</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="K30" t="s">
+        <v>53</v>
+      </c>
+      <c r="M30" t="s">
+        <v>164</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="O30" t="s">
+        <v>166</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2">
+        <v>44916.371493055558</v>
+      </c>
+      <c r="C31" s="2">
+        <v>44916.372210648151</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" t="s">
+        <v>168</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="K31" t="s">
+        <v>86</v>
+      </c>
+      <c r="M31" t="s">
+        <v>164</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="O31" t="s">
+        <v>166</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>